--- a/results_hoya.xlsx
+++ b/results_hoya.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hoya retusa (4″ pot)</t>
+          <t>6″ Hanging Basket (Set of 3)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -488,19 +488,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hoya pubicalyx ‘Pink Silver’ (4″ pot)</t>
+          <t>Hoya ‘Genieve’ MB 1141 (4″ pot)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Add to cart</t>
+          <t>Out of Stock</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dischidia oiantha ‘Variegata’ (2″ pot)</t>
+          <t>Hoya ‘Hotlips’ (4″ pot)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -512,7 +512,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dischidiopsis parasitica (2″ pot)</t>
+          <t>Hoya ‘Kicki’ MB 1250 (4″ pot)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hoya ‘Genieve’ MB 1141 (4″ pot)</t>
+          <t>Hoya ‘Michele’ MB 1255 (4″ pot)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -536,7 +536,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hoya ‘Hotlips’ (4″ pot)</t>
+          <t>Hoya acuta IML 1038 (4″ pot)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hoya ‘Jennifer’ (4″ pot)</t>
+          <t>Hoya aff. clandestina (4″ pot)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -560,7 +560,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hoya ‘Tequila Sunrise’ MB-1280-H (4″ pot)</t>
+          <t>Hoya aff. finlaysonii (5″ pot)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hoya aff. clandestina (4″ pot)</t>
+          <t>Hoya aff. samoensis IML 0457 (4″ pot)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hoya aff. clandestina (5″ pot)</t>
+          <t>Hoya aff. vitellinoides (4″ pot)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hoya aff. gracilis IML 1166 (4″ pot)</t>
+          <t>Hoya AH-074 Silver (3″ pot) (please view all photos before buying)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -608,7 +608,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hoya aff. polystachya (4″ pot)</t>
+          <t>Hoya anulata IML 1120 (4″ pot)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hoya aff. pottsii from Cambodia (4″ pot) (imperfections)</t>
+          <t>Hoya archboldiana (4″ pot)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hoya aff. samoensis IML 0457 (4″ pot)</t>
+          <t>Hoya archboldiana (5″ pot)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -644,7 +644,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hoya aff. vitellinoides (4″ pot)</t>
+          <t>Hoya arnottiana (4″ pot)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -656,7 +656,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hoya albiflora (4″ pot)</t>
+          <t>Hoya arnottiana (5″ pot)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -668,7 +668,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hoya aldrichii IML 1418 (5″ pot)</t>
+          <t>Hoya australis (4″ pot)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -680,7 +680,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hoya anulata IML 1120 (4″ pot)</t>
+          <t>Hoya benitotanii IML 1830 (4″ pot)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hoya archboldiana ‘Jumbo Red’ (4″ pot)</t>
+          <t>Hoya benitotanii IML 1830 (5″ pot)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -704,7 +704,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hoya archboldiana (4″ pot)</t>
+          <t>Hoya bhutanica (5″ pot)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -716,7 +716,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hoya archboldiana x onychoides (4″ pot)</t>
+          <t>Hoya bicknellii IML 1597 (4″ pot)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -728,7 +728,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hoya arnottiana (4″ pot)</t>
+          <t>Hoya cagayanensis (4″ pot)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -740,7 +740,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hoya arnottiana (5″ pot)</t>
+          <t>Hoya callistophylla (Long Leaf) (4″ pot) (imperfections)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hoya australis ‘variegata’ (2″ pot)</t>
+          <t>Hoya camphorifolia (5″ pot)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -764,7 +764,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hoya australis (4″ pot)</t>
+          <t>Hoya cardiophylla IML 1685 (4″ pot)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hoya bicknellii IML 1597 (4″ pot)</t>
+          <t>Hoya carnosa – Wax Flowers (5″ pot)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hoya callistophylla (Long Leaf) (4″ pot)</t>
+          <t>Hoya carnosa ‘Krimson queen’ (4″ pot)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -800,7 +800,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hoya callistophylla (Long Leaf) (5″ pot)</t>
+          <t>Hoya collina (2″ pot)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -812,7 +812,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hoya camphorifolia (4″ pot)</t>
+          <t>Hoya compacta – Hindu Rope – Indian Rope (4″ pot)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -824,7 +824,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hoya cardiophylla IML 1685 (4″ pot)</t>
+          <t>Hoya cv. Iris Marie (4″ pot)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hoya carnosa – Wax Flowers (4″ pot)</t>
+          <t>Hoya cv. Joy (4″ pot)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -848,7 +848,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hoya carnosa – Wax Flowers (5″ pot)</t>
+          <t>Hoya cv. Joy (5″ pot)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -860,7 +860,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hoya carnosa ‘Krimson Princess’ – Wax Flowers (4″ pot)</t>
+          <t>Hoya cv. Kaimuki (4″ pot)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -872,7 +872,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hoya caudata (4″ pot)</t>
+          <t>Hoya cv. kerrii x meliflua (4″ pot)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -884,7 +884,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hoya celata (4″ pot)</t>
+          <t>Hoya cv. Mathilde (4″ pot)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -896,7 +896,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hoya cf. palawanica IML 1605 (4″ pot)</t>
+          <t>Hoya cv. Minibelle (5″ pot)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -908,7 +908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hoya clemensiorum IML 1752 (4″ pot) (imperfections)</t>
+          <t>Hoya cv. Pinkie (4″ pot)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Hoya collina (2″ pot)</t>
+          <t>Hoya cv. Ruthie (4″ pot)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -932,7 +932,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hoya compacta – Hindu Rope – Indian Rope (4″ pot)</t>
+          <t>Hoya cv. Sunrise (4″ pot)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -944,7 +944,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hoya crassicaulis (4″ pot)</t>
+          <t>Hoya dasyantha (4″ pot)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hoya cumingiana (3″ pot)</t>
+          <t>Hoya dasyantha (5″ pot)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -968,7 +968,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Hoya cumingiana (4″ pot)</t>
+          <t>Hoya davidcummingii (4″ pot)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -980,7 +980,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hoya cv. Iris Marie (4″ pot)</t>
+          <t>Hoya densifolia (4″ pot)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hoya cv. Kaimuki (4″ pot)</t>
+          <t>Hoya deykeae (2.5″ pot)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1004,10 +1004,1258 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Hoya cv. kerrii x meliflua (4″ pot)</t>
+          <t>Hoya elliptica (2″ pot) (a few blemishes)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hoya elliptica IML 1679 (3″ pot)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hoya erythrina GPS-10143 EPC-746</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hoya erythrostemma</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hoya fischeriana IML 1289 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hoya glabra (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hoya hybrid EPC-1002 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hoya incrassata (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hoya ischnopus (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hoya kenejiana (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hoya kerrii ‘Silver Splash’ (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hoya kerrii – Sweetheart Hoya (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hoya lacunosa ‘Poonsak’ (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hoya lacunosa var. lacunosa (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hoya lacunosa var. lacunosa (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hoya limoniaca (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hoya lobbii ‘Black’ (3″ pot)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hoya lobbii (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hoya lobbii ‘Black’ (4″ pot) (imperfections)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hoya lucardenasiana (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hoya macgillivrayi (4″ pot) 1</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hoya macgillivrayi (4″ pot) 2</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hoya macgillivrayi (Light pink/blotched) (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hoya macrophylla ‘Baibua’ EPC-942 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hoya macrophylla ‘albomarginata’ (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hoya macrophylla ‘Variegata’ (Pot of gold) (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hoya manipurensis EPC-777 (2″ pot)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hoya mappigera (Sabah) (3″ pot)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Hoya megalaster (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Hoya meliflua (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Hoya memoria (2″ pot)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hoya merrillii (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hoya multiflora ‘Variegata’ (3″ pot)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Hoya nabawanensis (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Hoya naumanii (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hoya neocaledonica (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hoya nervosa IML 1818 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Hoya nicholsoniae (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hoya nicholsoniae (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hoya obovata (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Hoya obscura (Larger Flowers) (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Hoya pachyclada (Pink Center) (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Hoya persicina (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Hoya polystachya GPS-4075 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Hoya polystachya IML 1410 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Hoya pottsii IML 0616 (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Hoya pubicalyx ‘Dapple Gray’ (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Hoya pubicalyx ‘Pink Silver’ (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Hoya pubicalyx ‘Pink Silver’ (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Hoya pubicalyx ‘Royal Hawaiian Purple’ (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Hoya pubicalyx ‘Royal Hawaiian Purple’ (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Hoya retusa (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Hoya rigida IML 1529 (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Hoya rigida IML 1669 (Red Leaf) (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Hoya rosarioae (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hoya rubida IML 1710 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Hoya salmonea (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Hoya schneei (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Hoya scortechinii (2″ pot) (imperfections)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Hoya skinneriana (Dee’s Big One) (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hoya soligamiana (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Hoya sp. (collected in Thakhek, Laos) (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Hoya sp. (Collected in West Kalimantan) (4″ pot) (imperfections)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Hoya sp. 24 Nakorn Sri Thumarat (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Hoya sp. 24 Nakorn Sri Thumarat (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Hoya sp. aff. burtoniae (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Hoya sp. cf. lacunosa Fr. Fraser’s Hill (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Hoya sp. from Cebu City (2″ pot)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Hoya sp. Hat Som Paen IML 1438 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Hoya sp. Hat Som Paen IML 1438 (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Hoya sp. Kalimantan (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Hoya sp. Ko Chang Island IML 1508 (4″ pot smaller)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Hoya sp. Ko Chang Island IML 1508 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Hoya sp. Png Sv 435 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Hoya sp. UT-033 EPC-705 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Hoya sp. Ut-039 epc-707 Flores island (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Hoya subcalva (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Hoya subcalva IML 0484 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Hoya surigaoensis (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Hoya surigaoensis (6″ pot specimen)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Hoya tjadasmalangensis IML 1204 (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Hoya verticillata ‘Variegata’ (Former parasitica ‘Variegata’) (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Hoya verticillata (former wibergiae IML 1618) (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hoya verticillata ‘Albomarginata’ (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Dischidiopsis parasitica (2″ pot)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Hoya ‘Jennifer’ (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Hoya australis ‘variegata’ (2″ pot)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Hoya cv. Minibelle EPC-931 (2″ pot)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Hoya deykeae (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Hoya dolichosparte (Pink) (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Hoya fischeriana IML 1289 (5″ pot)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Hoya forbesii (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Hoya heuschkeliana EPC-073 (yellow flowers)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Hoya limoniaca (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Hoya paulshirleyi (imperfections) (3″ pot)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Hoya pusilla (4″ pot) (some imperfections/spots)</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Hoya rigida IML 1529 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Hoya sp. Borneo EPC-953 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Hoya sp. Perak Teddy Bear SR-2009-003 EPC-966 (4″ pot) (imperfections)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Hoya heuschkeliana ssp. heuschkeliana iml 0832</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Hoya hybrid EPC-1017 (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Hoya krohniana ‘Black Leaves’ EPC-943</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hoya. sp. Chicken Farm (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Hoya halconensis (4″ pot)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Out of Stock</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Dischidia ovata – Watermelon Dischidia (2″ pot)</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>Out of Stock</t>
         </is>
